--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Serpinc1-Sdc2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H2">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I2">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J2">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N2">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O2">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P2">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q2">
-        <v>6.896809925793334</v>
+        <v>4.311119759276223</v>
       </c>
       <c r="R2">
-        <v>62.07128933214</v>
+        <v>38.800077833486</v>
       </c>
       <c r="S2">
-        <v>0.006753128011550411</v>
+        <v>0.00324033126575418</v>
       </c>
       <c r="T2">
-        <v>0.007955061324412111</v>
+        <v>0.004048155036583958</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H3">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I3">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J3">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P3">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q3">
-        <v>210.6483790624378</v>
+        <v>197.0315273608429</v>
       </c>
       <c r="R3">
-        <v>1895.83541156194</v>
+        <v>1773.283746247586</v>
       </c>
       <c r="S3">
-        <v>0.2062599208242794</v>
+        <v>0.1480931762734946</v>
       </c>
       <c r="T3">
-        <v>0.2429704155050995</v>
+        <v>0.1850132249598035</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H4">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I4">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J4">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N4">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O4">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P4">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q4">
-        <v>89.95582027643833</v>
+        <v>0.03976880768122222</v>
       </c>
       <c r="R4">
-        <v>539.73492165863</v>
+        <v>0.357919269131</v>
       </c>
       <c r="S4">
-        <v>0.08808176189384136</v>
+        <v>2.989109979001462E-05</v>
       </c>
       <c r="T4">
-        <v>0.06917247002468764</v>
+        <v>3.734303570836236E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.564056666666667</v>
+        <v>4.269024333333333</v>
       </c>
       <c r="H5">
-        <v>13.69217</v>
+        <v>12.807073</v>
       </c>
       <c r="I5">
-        <v>0.3012303010600196</v>
+        <v>0.239419143716247</v>
       </c>
       <c r="J5">
-        <v>0.3202575519860646</v>
+        <v>0.2624375843396372</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N5">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O5">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P5">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q5">
-        <v>0.13837307002</v>
+        <v>117.1543374383318</v>
       </c>
       <c r="R5">
-        <v>1.24535763018</v>
+        <v>702.926024629991</v>
       </c>
       <c r="S5">
-        <v>0.0001354903303484617</v>
+        <v>0.08805574507720816</v>
       </c>
       <c r="T5">
-        <v>0.0001596051318653168</v>
+        <v>0.0733388613075413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>8.00061</v>
       </c>
       <c r="I6">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J6">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N6">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O6">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P6">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q6">
-        <v>4.02994459318</v>
+        <v>2.693167116113333</v>
       </c>
       <c r="R6">
-        <v>36.26950133862</v>
+        <v>24.23850404502</v>
       </c>
       <c r="S6">
-        <v>0.003945988364188462</v>
+        <v>0.002024242910781062</v>
       </c>
       <c r="T6">
-        <v>0.004648302145146078</v>
+        <v>0.002528892407128777</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>8.00061</v>
       </c>
       <c r="I7">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J7">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P7">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q7">
         <v>123.0860797091133</v>
@@ -886,10 +886,10 @@
         <v>1107.77471738202</v>
       </c>
       <c r="S7">
-        <v>0.1205218153985773</v>
+        <v>0.09251417142898177</v>
       </c>
       <c r="T7">
-        <v>0.1419724949364676</v>
+        <v>0.1155782166421362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>8.00061</v>
       </c>
       <c r="I8">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J8">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N8">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O8">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P8">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q8">
-        <v>52.56299295596499</v>
+        <v>0.02484367196333333</v>
       </c>
       <c r="R8">
-        <v>315.37795773579</v>
+        <v>0.22359304767</v>
       </c>
       <c r="S8">
-        <v>0.05146794299409706</v>
+        <v>1.867304355109E-05</v>
       </c>
       <c r="T8">
-        <v>0.0404188638765233</v>
+        <v>2.332828624609862E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>8.00061</v>
       </c>
       <c r="I9">
-        <v>0.1760149164788199</v>
+        <v>0.1495657278917394</v>
       </c>
       <c r="J9">
-        <v>0.187132921443075</v>
+        <v>0.1639454043592587</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N9">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O9">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P9">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q9">
-        <v>0.08085416465999999</v>
+        <v>73.18660271964499</v>
       </c>
       <c r="R9">
-        <v>0.72768748194</v>
+        <v>439.11961631787</v>
       </c>
       <c r="S9">
-        <v>7.916972195708977E-05</v>
+        <v>0.05500864050842549</v>
       </c>
       <c r="T9">
-        <v>9.326048493795887E-05</v>
+        <v>0.04581496702374758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H10">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I10">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J10">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N10">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O10">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P10">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q10">
-        <v>4.108187557576666</v>
+        <v>3.643539247248222</v>
       </c>
       <c r="R10">
-        <v>36.97368801819</v>
+        <v>32.791853225234</v>
       </c>
       <c r="S10">
-        <v>0.004022601285272129</v>
+        <v>0.002738563250407818</v>
       </c>
       <c r="T10">
-        <v>0.004738550765403316</v>
+        <v>0.003421294832509006</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H11">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I11">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J11">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P11">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q11">
-        <v>125.4758445134989</v>
+        <v>166.5210300270149</v>
       </c>
       <c r="R11">
-        <v>1129.28260062149</v>
+        <v>1498.689270243134</v>
       </c>
       <c r="S11">
-        <v>0.1228617939995762</v>
+        <v>0.1251608236679362</v>
       </c>
       <c r="T11">
-        <v>0.1447289469446215</v>
+        <v>0.1563637718368977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H12">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I12">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J12">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N12">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O12">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P12">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q12">
-        <v>53.58352420430916</v>
+        <v>0.03361057444322222</v>
       </c>
       <c r="R12">
-        <v>321.5011452258549</v>
+        <v>0.3024951699889999</v>
       </c>
       <c r="S12">
-        <v>0.05246721341535094</v>
+        <v>2.52624379069942E-05</v>
       </c>
       <c r="T12">
-        <v>0.04120361206700625</v>
+        <v>3.15604352957369E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.718648333333333</v>
+        <v>3.607962333333333</v>
       </c>
       <c r="H13">
-        <v>8.155944999999999</v>
+        <v>10.823887</v>
       </c>
       <c r="I13">
-        <v>0.1794323155335466</v>
+        <v>0.2023448884238746</v>
       </c>
       <c r="J13">
-        <v>0.1907661809510825</v>
+        <v>0.221798904202795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N13">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O13">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P13">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q13">
-        <v>0.08242398016999998</v>
+        <v>99.01288998605483</v>
       </c>
       <c r="R13">
-        <v>0.7418158215299998</v>
+        <v>594.0773399163289</v>
       </c>
       <c r="S13">
-        <v>8.070683334737182E-05</v>
+        <v>0.0744202390676236</v>
       </c>
       <c r="T13">
-        <v>9.50711740513937E-05</v>
+        <v>0.06198227709809253</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H14">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I14">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J14">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N14">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O14">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P14">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q14">
-        <v>4.080820779332</v>
+        <v>4.738079423776667</v>
       </c>
       <c r="R14">
-        <v>24.484924675992</v>
+        <v>28.42847654266</v>
       </c>
       <c r="S14">
-        <v>0.003995804641789356</v>
+        <v>0.003561243424856198</v>
       </c>
       <c r="T14">
-        <v>0.003137989872884317</v>
+        <v>0.002966047671153301</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H15">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I15">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J15">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P15">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q15">
-        <v>124.6399845232387</v>
+        <v>216.5449066022767</v>
       </c>
       <c r="R15">
-        <v>747.8399071394318</v>
+        <v>1299.26943961366</v>
       </c>
       <c r="S15">
-        <v>0.1220433475620646</v>
+        <v>0.162759856019629</v>
       </c>
       <c r="T15">
-        <v>0.09584322133705762</v>
+        <v>0.1355575663642709</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H16">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I16">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J16">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N16">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O16">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P16">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q16">
-        <v>53.22657642529099</v>
+        <v>0.04370738460166667</v>
       </c>
       <c r="R16">
-        <v>212.906305701164</v>
+        <v>0.26224430761</v>
       </c>
       <c r="S16">
-        <v>0.05211770196424756</v>
+        <v>3.285141976498941E-05</v>
       </c>
       <c r="T16">
-        <v>0.02728608888956679</v>
+        <v>2.736091456369931E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.700538</v>
+        <v>4.691815</v>
       </c>
       <c r="H17">
-        <v>5.401076</v>
+        <v>9.38363</v>
       </c>
       <c r="I17">
-        <v>0.1782370233711727</v>
+        <v>0.2631304584056895</v>
       </c>
       <c r="J17">
-        <v>0.1263302586697861</v>
+        <v>0.1922857150526861</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N17">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O17">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P17">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q17">
-        <v>0.081874911084</v>
+        <v>128.7569324485525</v>
       </c>
       <c r="R17">
-        <v>0.4912494665039999</v>
+        <v>515.02772979421</v>
       </c>
       <c r="S17">
-        <v>8.016920307122406E-05</v>
+        <v>0.09677650754143934</v>
       </c>
       <c r="T17">
-        <v>6.295857027736274E-05</v>
+        <v>0.05373474010269823</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H18">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I18">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J18">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.511114</v>
+        <v>1.009860666666667</v>
       </c>
       <c r="N18">
-        <v>4.533342</v>
+        <v>3.029582</v>
       </c>
       <c r="O18">
-        <v>0.02241848840500565</v>
+        <v>0.01353413605720072</v>
       </c>
       <c r="P18">
-        <v>0.02483957450832654</v>
+        <v>0.01542521070970148</v>
       </c>
       <c r="Q18">
-        <v>3.779709151826667</v>
+        <v>2.620673594916223</v>
       </c>
       <c r="R18">
-        <v>34.01738236644</v>
+        <v>23.586062354246</v>
       </c>
       <c r="S18">
-        <v>0.003700966102205289</v>
+        <v>0.001969755205401462</v>
       </c>
       <c r="T18">
-        <v>0.004359670400480719</v>
+        <v>0.00246082076232644</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H19">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I19">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J19">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>138.461282</v>
       </c>
       <c r="O19">
-        <v>0.6847250097299556</v>
+        <v>0.6185519418990597</v>
       </c>
       <c r="P19">
-        <v>0.7586719313825014</v>
+        <v>0.704979911415303</v>
       </c>
       <c r="Q19">
-        <v>115.4431707885822</v>
+        <v>119.7729012304829</v>
       </c>
       <c r="R19">
-        <v>1038.98853709724</v>
+        <v>1077.956111074346</v>
       </c>
       <c r="S19">
-        <v>0.1130381319454582</v>
+        <v>0.090023914509018</v>
       </c>
       <c r="T19">
-        <v>0.1331568526592553</v>
+        <v>0.1124671316121947</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H20">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I20">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J20">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>19.7096195</v>
+        <v>0.009315666666666667</v>
       </c>
       <c r="N20">
-        <v>39.419239</v>
+        <v>0.027947</v>
       </c>
       <c r="O20">
-        <v>0.2924067120202865</v>
+        <v>0.0001248484115599408</v>
       </c>
       <c r="P20">
-        <v>0.2159901291810835</v>
+        <v>0.000142293017222847</v>
       </c>
       <c r="Q20">
-        <v>49.29914566549666</v>
+        <v>0.02417494062122222</v>
       </c>
       <c r="R20">
-        <v>295.79487399298</v>
+        <v>0.217574465591</v>
       </c>
       <c r="S20">
-        <v>0.04827209175274953</v>
+        <v>1.817041054685256E-05</v>
       </c>
       <c r="T20">
-        <v>0.03790909432329949</v>
+        <v>2.270034540894982E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.501273333333333</v>
+        <v>2.595084333333333</v>
       </c>
       <c r="H21">
-        <v>7.50382</v>
+        <v>7.785253</v>
       </c>
       <c r="I21">
-        <v>0.1650854435564411</v>
+        <v>0.1455397815624493</v>
       </c>
       <c r="J21">
-        <v>0.1755130869499919</v>
+        <v>0.159532392045623</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.030318</v>
+        <v>27.4428835</v>
       </c>
       <c r="N21">
-        <v>0.09095399999999999</v>
+        <v>54.885767</v>
       </c>
       <c r="O21">
-        <v>0.0004497898447522563</v>
+        <v>0.3677890736321797</v>
       </c>
       <c r="P21">
-        <v>0.000498364928088446</v>
+        <v>0.2794525848577725</v>
       </c>
       <c r="Q21">
-        <v>0.07583360491999999</v>
+        <v>71.21659703234184</v>
       </c>
       <c r="R21">
-        <v>0.68250244428</v>
+        <v>427.299582194051</v>
       </c>
       <c r="S21">
-        <v>7.425375602810902E-05</v>
+        <v>0.05352794143748302</v>
       </c>
       <c r="T21">
-        <v>8.74695669564139E-05</v>
+        <v>0.04458173932569291</v>
       </c>
     </row>
   </sheetData>
